--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>RhodesAsyncHTTP</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>validate1
@@ -668,7 +665,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -726,7 +723,9 @@
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
@@ -734,17 +733,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="166.5" thickBot="1">
@@ -765,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Rhodes_AsyncHTTP.xlsx
@@ -80,17 +80,6 @@
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(AsyncHttp_test_link);
-wait(3);
-validate2;
-link_Click(asyncHttpCall1_test_link);
-wait(3);
-validate3;
-</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Tasklist
@@ -105,15 +94,24 @@
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
+    <t>wait(3);
+validate1;
+link_Click(AsyncHttp_test_link);
+wait(3);
+validate2;
+link_Click(asyncHttpCall1_test_link);
+wait(3);
+validate3;</t>
+  </si>
+  <si>
+    <t>wait(3);
 validate1;
 link_Click(AsyncHttp_test_link);
 wait(3);
 validate2;
 link_Click(asyncHttpDownload_test_link);
 wait(10);
-validate3;
-</t>
+validate3;</t>
   </si>
 </sst>
 </file>
@@ -665,7 +663,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>15</v>
@@ -765,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="2"/>
